--- a/biology/Zoologie/Constantia_elegans/Constantia_elegans.xlsx
+++ b/biology/Zoologie/Constantia_elegans/Constantia_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Constantia elegans est une espèce de mollusques gastéropodes parasites de l'ordre des Littorinimorpha et de la famille des Vanikoridae. 
 Il s'agit de l'espèce type de son genre. Elle est trouvée au Japon.
